--- a/biology/Médecine/Joseph_Chompret/Joseph_Chompret.xlsx
+++ b/biology/Médecine/Joseph_Chompret/Joseph_Chompret.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le docteur Joseph Chompret (18 août 1869, Éclaron – 8 juin 1956, Paris) est un médecin, collectionneur et historien d’art français[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le docteur Joseph Chompret (18 août 1869, Éclaron – 8 juin 1956, Paris) est un médecin, collectionneur et historien d’art français.
 </t>
         </is>
       </c>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils d’un médecin de campagne, lui-même collectionneur, il a choisi également une carrière médicale et obtint son diplôme de médecine en 1893. Il se spécialisa en stomatologie, et inventa le syndesmotome. Il fut de longues années chef de service à l’hôpital Saint-Louis, à Paris.
 Grand collectionneur, il s’intéressa aux couverts anciens, aux étains, aux ivoires et aux émaux médiévaux. Toutefois, il est surtout connu pour ses travaux sur la céramique, et sa collection de faïences françaises, de majoliques italiennes et de céramiques du Moyen-Orient est renommée. Le docteur Chompret fut également grand amis des musées : le Musée de Céramique de Sèvres a reçu du Dr Chompret 280 pièces, le Musée des Arts décoratifs 339. Il fut d’ailleurs pendant 25 ans (1931-1956) président de l’association des Amis de Sèvres.
